--- a/Online_Learning_System/web/Excel_mentor_template/Create_Question_Template.xlsx
+++ b/Online_Learning_System/web/Excel_mentor_template/Create_Question_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_E-Learning\Online_Learning_System\web\Excel_mentor_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F42BB-4DAC-4A53-B694-1B10F397B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C069DF26-87AE-482D-95AE-6F7039D56EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="1032" windowWidth="21624" windowHeight="11304" xr2:uid="{B3130F95-D2A4-4E60-9004-7CAAC5942330}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3130F95-D2A4-4E60-9004-7CAAC5942330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Question Title</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Answer 5</t>
   </si>
   <si>
-    <t>Answer 6</t>
-  </si>
-  <si>
-    <t>Answer 7</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>event d*</t>
+  </si>
+  <si>
+    <t>Answer n</t>
   </si>
 </sst>
 </file>
@@ -457,25 +454,25 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -496,53 +493,51 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1" s="1"/>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
